--- a/src/test/java/ApachiPOI/resourse/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachiPOI/resourse/WriteInTheExcelFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>Merhaba Dunya</t>
   </si>

--- a/src/test/java/ApachiPOI/resourse/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachiPOI/resourse/WriteInTheExcelFile.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnoStudy\IdeaProjects\Cucumber_Kursu\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cucumber_Kursu2\src\test\java\ApachiPOI\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,16 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Merhaba Dunya</t>
+  </si>
+  <si>
+    <t>Merhaba Dunya2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,44 +347,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E1" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F1" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G1" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I1" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J1" t="n">
-        <v>9.0</v>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
